--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
@@ -952,12 +952,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1007,18 +1007,18 @@
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,59 +1047,59 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,28 +1108,28 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1230,28 +1230,28 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1267,22 +1267,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,19 +1291,19 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1328,22 +1328,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="n">
         <v>10</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1492,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1506,27 +1506,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
         <v>5</v>
       </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -1567,27 +1567,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1614,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1678,18 +1678,18 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="H21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1755,22 +1755,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,28 +1779,28 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1840,25 +1840,25 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>36</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,25 +1901,25 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>32</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1962,16 +1962,16 @@
         </is>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>8</v>
       </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1994,27 +1994,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,28 +2023,28 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2065,17 +2065,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,59 +2084,59 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,19 +2145,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2166,18 +2166,18 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2243,22 +2243,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2267,28 +2267,28 @@
         </is>
       </c>
       <c r="H30" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8</v>
+      </c>
+      <c r="K30" t="n">
         <v>6</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -2304,22 +2304,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
-        <v>4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2389,13 +2389,13 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2404,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,16 +2450,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -2482,27 +2482,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="H34" t="n">
+        <v>13</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
         <v>6</v>
       </c>
-      <c r="I34" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>2</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2543,22 +2543,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2572,16 +2572,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2614,17 +2614,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I36" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,28 +2694,28 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -2767,47 +2767,47 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2816,19 +2816,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
+        <v>20</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
         <v>28</v>
-      </c>
-      <c r="I40" t="n">
-        <v>15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>21</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2919,17 +2919,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,16 +2938,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2980,17 +2980,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
         <v>7</v>
       </c>
       <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -3031,27 +3031,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,13 +3060,13 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>3</v>
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I44" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
       <c r="O44" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -3214,27 +3214,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3243,28 +3243,28 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -3275,22 +3275,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3304,39 +3304,39 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3</v>
-      </c>
-      <c r="O47" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3365,59 +3365,59 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3426,28 +3426,28 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -3458,27 +3458,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -3519,27 +3519,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3548,16 +3548,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I51" t="n">
         <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -3580,27 +3580,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3609,16 +3609,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,28 +3670,28 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3712,17 +3712,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,10 +3731,10 @@
         </is>
       </c>
       <c r="H54" t="n">
+        <v>19</v>
+      </c>
+      <c r="I54" t="n">
         <v>18</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3813,38 +3813,38 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,19 +3853,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
         <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3874,38 +3874,38 @@
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,39 +3914,39 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>3</v>
       </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
       <c r="O57" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3984,30 +3984,30 @@
         <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4036,28 +4036,28 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
@@ -4068,27 +4068,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4097,28 +4097,28 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
         <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -4129,27 +4129,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
         <v>10</v>
@@ -4167,19 +4167,19 @@
         <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L61" t="n">
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -4190,27 +4190,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4219,28 +4219,28 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -4251,22 +4251,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4280,13 +4280,13 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -4295,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O63" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4322,17 +4322,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4341,19 +4341,19 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,28 +4402,28 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4463,28 +4463,28 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,59 +4524,59 @@
         </is>
       </c>
       <c r="H67" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" t="n">
         <v>9</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,39 +4585,39 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4646,39 +4646,39 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I69" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" t="n">
         <v>3</v>
       </c>
-      <c r="J69" t="n">
-        <v>4</v>
-      </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4707,19 +4707,19 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -4749,17 +4749,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4768,28 +4768,28 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,28 +4829,28 @@
         </is>
       </c>
       <c r="H72" t="n">
+        <v>18</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" t="n">
         <v>5</v>
       </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3</v>
-      </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,17 +4890,17 @@
         </is>
       </c>
       <c r="H73" t="n">
+        <v>16</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
         <v>5</v>
       </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>3</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="H74" t="n">
+        <v>16</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
         <v>3</v>
       </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,28 +5012,28 @@
         </is>
       </c>
       <c r="H75" t="n">
+        <v>15</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" t="n">
         <v>3</v>
       </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5073,20 +5073,20 @@
         </is>
       </c>
       <c r="H76" t="n">
+        <v>13</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5134,16 +5134,16 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,28 +5195,28 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
         <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
         <v>3</v>
       </c>
       <c r="O78" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,28 +5256,28 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,28 +5317,28 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
         <v>5</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -5359,17 +5359,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5378,19 +5378,19 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -5457,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5500,19 +5500,19 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -5542,17 +5542,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Miles Keeffe</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5561,19 +5561,19 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5622,28 +5622,28 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O85" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Alex Lloyd</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5683,28 +5683,28 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5744,19 +5744,19 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -5786,17 +5786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CJ Ingram</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
         <v>2</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -5847,17 +5847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5866,16 +5866,16 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O89" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -5908,17 +5908,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5927,13 +5927,13 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -5969,17 +5969,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5988,16 +5988,16 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -6030,17 +6030,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6049,13 +6049,13 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -6067,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6110,13 +6110,13 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6128,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6213,17 +6213,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -6250,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O95" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6293,19 +6293,19 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -6335,12 +6335,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -6396,17 +6396,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -6457,17 +6457,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6476,13 +6476,13 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -6494,10 +6494,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>3</v>
-      </c>
-      <c r="O99" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -6555,10 +6555,10 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -6579,47 +6579,2548 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>Miles Keeffe</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Amere Brown</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CJ Ingram</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>AUB@MISS</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Elmir Džafić</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Jaden Karuletwa</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ayden Kelley</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Isaiah Sealy</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>VAN@ARK</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Mazi Mosley</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LSU@FLA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>UGA@MIZ</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>Jordan Ross</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>UGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>UGA@MIZ</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
         <v>-5</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>2</v>
-      </c>
-      <c r="O101" t="n">
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>17</v>
+      </c>
+      <c r="I119" t="n">
+        <v>13</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>14</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>14</v>
+      </c>
+      <c r="I121" t="n">
+        <v>16</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>14</v>
+      </c>
+      <c r="I122" t="n">
+        <v>14</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>13</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>13</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>6</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Kam Williams</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Simeon Wilcher</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Amier Ali</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>MSST@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6666,92 +9167,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,17 +596,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -657,22 +657,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,28 +1230,28 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" t="n">
         <v>19</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -1943,17 +1943,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1962,16 +1962,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -2065,17 +2065,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,28 +2084,28 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
         <v>2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I40" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -2980,17 +2980,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>3</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>2</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
       <c r="O42" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,28 +3060,28 @@
         </is>
       </c>
       <c r="H43" t="n">
+        <v>20</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>3</v>
       </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I44" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J44" t="n">
         <v>6</v>
       </c>
       <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>3</v>
       </c>
-      <c r="L44" t="n">
-        <v>2</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4</v>
-      </c>
       <c r="O44" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3182,19 +3182,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -3585,17 +3585,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3609,17 +3609,17 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>20</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18</v>
+      </c>
+      <c r="J52" t="n">
         <v>7</v>
       </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>3</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,16 +3670,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
         <v>18</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -3712,17 +3712,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,16 +3731,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3951,22 +3951,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -4256,22 +4256,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4280,25 +4280,25 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>30</v>
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4341,16 +4341,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>3</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4463,19 +4463,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4527,25 +4527,25 @@
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O67" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
         <v>15</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4893,13 +4893,13 @@
         <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,17 +4951,17 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
         <v>3</v>
       </c>
-      <c r="K74" t="n">
-        <v>2</v>
-      </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
@@ -4969,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
@@ -5338,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -5664,17 +5664,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5686,25 +5686,25 @@
         <v>8</v>
       </c>
       <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
         <v>3</v>
       </c>
-      <c r="J86" t="n">
-        <v>4</v>
-      </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5744,28 +5744,28 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Alex Lloyd</t>
+          <t>Alex Kovatchev</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -6762,17 +6762,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Alex Lloyd</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CJ Ingram</t>
+          <t>Amere Brown</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -6884,17 +6884,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>CJ Ingram</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6909,13 +6909,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6945,17 +6945,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6973,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Elmir Džafić</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Jaden Karuletwa</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -7104,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
@@ -7189,17 +7189,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -7287,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7333,10 +7333,10 @@
         <v>-1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Ayden Kelley</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
         <v>1</v>
@@ -7433,17 +7433,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -7494,17 +7494,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7513,13 +7513,13 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7528,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -7555,12 +7555,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7580,22 +7580,22 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O117" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -7644,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -7653,16 +7653,16 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7677,17 +7677,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7696,28 +7696,28 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="I119" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O119" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -7757,16 +7757,16 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I120" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J120" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -7775,10 +7775,10 @@
         <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -7821,25 +7821,25 @@
         <v>14</v>
       </c>
       <c r="I121" t="n">
+        <v>6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="n">
         <v>16</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-      <c r="O121" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -7860,17 +7860,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7882,10 +7882,10 @@
         <v>14</v>
       </c>
       <c r="I122" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -7897,10 +7897,10 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
@@ -7921,12 +7921,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -7940,28 +7940,28 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J123" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
@@ -7982,17 +7982,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8004,25 +8004,25 @@
         <v>13</v>
       </c>
       <c r="I124" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
+        <v>7</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
         <v>2</v>
       </c>
-      <c r="K124" t="n">
-        <v>6</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -8043,17 +8043,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8062,28 +8062,28 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8126,13 +8126,13 @@
         <v>9</v>
       </c>
       <c r="I126" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J126" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -8165,12 +8165,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -8184,28 +8184,28 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J127" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8245,28 +8245,28 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I128" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>1</v>
       </c>
       <c r="O128" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8306,28 +8306,28 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I129" t="n">
+        <v>10</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
         <v>2</v>
       </c>
-      <c r="J129" t="n">
-        <v>4</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8370,10 +8370,10 @@
         <v>5</v>
       </c>
       <c r="I130" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -8382,13 +8382,13 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8428,13 +8428,13 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I131" t="n">
         <v>6</v>
       </c>
       <c r="J131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -8470,12 +8470,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8492,16 +8492,16 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -8531,17 +8531,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8550,28 +8550,28 @@
         </is>
       </c>
       <c r="H133" t="n">
+        <v>4</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
         <v>3</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1</v>
-      </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -8592,17 +8592,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8617,22 +8617,22 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -8653,17 +8653,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8675,25 +8675,25 @@
         <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
         <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
@@ -8714,12 +8714,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -8733,19 +8733,19 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
         <v>2</v>
       </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="O136" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
@@ -8775,17 +8775,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Amier Ali</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8794,13 +8794,13 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -8836,12 +8836,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -8897,17 +8897,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -8922,10 +8922,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -8977,16 +8977,16 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -8995,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -9019,12 +9019,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -9080,46 +9080,107 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>TEX@UK</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>Ja'Borri McGhee</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>MSST@TA&amp;M</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
         <v>-4</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I143" t="n">
         <v>2</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>1</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0</v>
-      </c>
-      <c r="N142" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
         <v>4</v>
       </c>
-      <c r="O142" t="n">
+      <c r="O143" t="n">
         <v>13</v>
       </c>
     </row>
@@ -9167,11 +9228,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9180,27 +9241,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -9210,33 +9271,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -9245,14 +9306,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-21.xlsx
@@ -596,17 +596,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,28 +620,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -657,22 +657,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,28 +681,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,28 +1169,28 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,28 +1230,28 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1474,28 +1474,28 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,28 +1535,28 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1962,28 +1962,28 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
         <v>2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>2</v>
       </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -2065,17 +2065,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,16 +2084,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2858,17 +2858,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2877,28 +2877,28 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -2980,17 +2980,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -3036,22 +3036,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3060,28 +3060,28 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I44" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J44" t="n">
         <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3182,19 +3182,19 @@
         </is>
       </c>
       <c r="H45" t="n">
+        <v>17</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
         <v>6</v>
       </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -3585,17 +3585,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3609,16 +3609,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UGA@MIZ</t>
+          <t>OU@SC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3670,16 +3670,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
         <v>18</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -3712,17 +3712,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OU@SC</t>
+          <t>UGA@MIZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,16 +3731,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TEX@UK</t>
+          <t>MSST@TA&amp;M</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3914,28 +3914,28 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -3951,22 +3951,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MSST@TA&amp;M</t>
+          <t>TEX@UK</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -4256,22 +4256,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VAN@ARK</t>
+          <t>LSU@FLA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4280,25 +4280,25 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
         <v>4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>30</v>
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4341,16 +4341,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4359,10 +4359,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AUB@MISS</t>
+          <t>VAN@ARK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I65" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K65" t="n">
         <v>3</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4463,19 +4463,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>LSU@FLA</t>
+          <t>AUB@MISS</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4527,25 +4527,25 @@
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -9228,11 +9228,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9241,27 +9241,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9271,33 +9271,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -9306,14 +9306,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
